--- a/GUATEMALA/Delitos/Sentencias por Delito 2018-2019-2020.xlsx
+++ b/GUATEMALA/Delitos/Sentencias por Delito 2018-2019-2020.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E194E2-237B-4207-911C-B39B12D94BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C1C13E-0418-42C1-BD39-442367F1026F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CAD5BC7-A91E-42EF-81EC-AE0619A760B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Femicidio" sheetId="1" r:id="rId1"/>
+    <sheet name="Otros" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="sentencias" localSheetId="0">Hoja1!$A$1:$A$479</definedName>
+    <definedName name="sentencias" localSheetId="0">Femicidio!$I$1:$I$479</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="382">
   <si>
     <t>Fiscalia de la Niñez y Adolescencia</t>
   </si>
@@ -1171,6 +1171,18 @@
   </si>
   <si>
     <t>El 27 de octubre 2017 uno de los condenados violentó sexualmente a una adolescente a quien atacaron con golpes en la cabeza lo que produjo un trauma craneoencefálico que le causó la muerte. Posteriormente envolvieron el cadáver en tela y lo abandonaron en un sembradillo de milpa.</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Fecha Sentencia</t>
+  </si>
+  <si>
+    <t>Descripción Delito</t>
   </si>
 </sst>
 </file>
@@ -1527,1354 +1539,1374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4624A5-F142-4104-9DED-55B26AD03304}">
-  <dimension ref="A2:A478"/>
+  <dimension ref="A1:I478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
         <v>44092</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
         <v>44092</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
         <v>44092</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="1">
         <v>44064</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="1">
         <v>43904</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I129" s="1">
         <v>43902</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I138" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I153" s="1">
         <v>43353</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I157" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I158" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I159" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I162" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I165" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I173" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I177" s="1">
         <v>43328</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I187" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I195" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I199" s="1">
         <v>43263</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I203" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I204" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I205" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I209" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I212" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I216" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I220" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I224" s="1">
         <v>43359</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I228" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I229" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I230" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I231" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I232" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I234" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I238" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I242" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I246" s="1">
         <v>43420</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I250" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I251" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I254" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I255" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I257" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I261" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I265" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I269" s="1">
         <v>43543</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I273" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I274" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I277" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I278" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I280" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I284" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I288" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I292" s="1">
         <v>43626</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I296" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I297" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I298" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I299" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I300" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I302" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I306" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I310" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I314" s="1">
         <v>43626</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I318" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I319" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I322" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I323" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I325" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I329" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I333" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I337" s="1">
         <v>43621</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I341" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I342" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I343" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I344" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I347" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I351" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I355" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I359" s="1">
         <v>43627</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I363" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I364" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I365" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I368" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I369" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I371" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I375" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I379" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I383" s="1">
         <v>43661</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I387" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I388" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I389" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I390" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I391" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I393" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I397" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+    <row r="399" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I401" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
+    <row r="403" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I405" s="1">
         <v>43697</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+    <row r="407" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I407" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I409" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+    <row r="410" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I410" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+    <row r="411" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I411" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+    <row r="414" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I414" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    <row r="415" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I415" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I417" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+    <row r="419" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I421" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I425" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1">
+    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I427" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I429" s="1">
         <v>43867</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I431" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I433" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+    <row r="434" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I434" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+    <row r="435" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I435" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+    <row r="436" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I436" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I438" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+    <row r="440" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I440" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I442" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+    <row r="444" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I446" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="1">
+    <row r="448" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I450" s="1">
         <v>43785</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+    <row r="452" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I452" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I454" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+    <row r="455" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I455" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+    <row r="456" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I456" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="457" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I457" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I459" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+    <row r="461" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I463" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+    <row r="465" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I465" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I467" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="1">
+    <row r="469" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I471" s="1">
         <v>43769</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+    <row r="473" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I473" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I475" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+    <row r="476" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I476" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+    <row r="477" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I477" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+    <row r="478" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I478" t="s">
         <v>81</v>
       </c>
     </row>

--- a/GUATEMALA/Delitos/Sentencias por Delito 2018-2019-2020.xlsx
+++ b/GUATEMALA/Delitos/Sentencias por Delito 2018-2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C1C13E-0418-42C1-BD39-442367F1026F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F740F126-D223-4CA8-AC4D-0CE6E3B244FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CAD5BC7-A91E-42EF-81EC-AE0619A760B5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Otros" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="sentencias" localSheetId="0">Femicidio!$I$1:$I$479</definedName>
+    <definedName name="sentencias" localSheetId="0">Femicidio!$N$1:$N$92</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="436">
   <si>
     <t>Fiscalia de la Niñez y Adolescencia</t>
   </si>
@@ -96,42 +96,24 @@
     <t>Fiscalía contra el Delito de Femicidio</t>
   </si>
   <si>
-    <t>Sentencia condenatoria de:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30 años de prisión inconmutables</t>
-  </si>
-  <si>
     <t>Walfren Roberto Ibáñez Toledo</t>
   </si>
   <si>
-    <t>El 04 de febrero del año 2019, en el municipio Canalitos, le dispararon en repetidas ocasiones a Ángela Elizabeth Hernández Canté, provocándole muerte inmediata</t>
-  </si>
-  <si>
     <t>Asesinato</t>
   </si>
   <si>
     <t>Nelson Armando Cano Ochoa</t>
   </si>
   <si>
-    <t>El 04 de febrero del año 2019, en el municipio Canalitos, le dispararon en repetidas ocasiones a Ángela Elizabeth Hernández Canté, provocándole muerte inmediata.</t>
-  </si>
-  <si>
     <t>30 años de prisión inconmutables</t>
   </si>
   <si>
     <t>Ángel de Jesús Pérez Martínez</t>
   </si>
   <si>
-    <t>25 años de prisión inconmutables</t>
-  </si>
-  <si>
     <t>Dilan Alberto Polanco Ordón</t>
   </si>
   <si>
-    <t>El 07 de septiembre del 2018 el acusado portando un arma de fuego, le disparó en repetidas ocasiones a Jennifer Elizabeth Pernillo, frente a su hija menor, causándole la muerte de manera inmediata, posterior al hecho se dio a la fuga a bordo de una motocicleta.</t>
-  </si>
-  <si>
     <t>Fiscalía de Sección de la Mujer</t>
   </si>
   <si>
@@ -261,27 +243,12 @@
     <t>Violación</t>
   </si>
   <si>
-    <t>Sentencia condenatoria de 48 años de prisión inconmutables</t>
-  </si>
-  <si>
     <t>Daniel Valiente Ventura</t>
   </si>
   <si>
-    <t>Daniel Valiente Ventura de San Marcos, quien agredía constantemente a su conviviente, luego de una discusión, toma un arma de fuego y realizó al menos ocho disparos en contra de Karina Magali Gómez Gómez (quien se encontraba en estado de gestación), por las heridas falleció inmediatamente. El victimario se dio a la fuga pero fue detenido por agentes policiales con el referida arma.</t>
-  </si>
-  <si>
     <t>Femicidio</t>
   </si>
   <si>
-    <t>Sentencia absolutoria y evaluación por psicólogo y psiquiatra y someterse a tratamiento médico</t>
-  </si>
-  <si>
-    <t>Sergio David Aldana Morataya</t>
-  </si>
-  <si>
-    <t>Se encontraba en su casa con su esposa Shiraz A. M. Ewidasubeh, lugar donde la agredió con una tijera. La víctima fue auxiliada por los vecinos luego fue detenido por la PNC. Durante el proceso se aplicaron medidas de seguridad y corrección</t>
-  </si>
-  <si>
     <t>Violencia contra la mujer en su manifestación física</t>
   </si>
   <si>
@@ -429,18 +396,9 @@
     <t>El 21 de noviembre del año 2016 el municipio de Villa Canales departamento de Guatemala, Miguel Nicolás Lorenzo Tujal le dio muerte a su conviviente Mindy Judith García de Paz, a quien asfixió por estrangulamiento, luego de una discusión.</t>
   </si>
   <si>
-    <t>Huehuetenango ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 años de prisión inconmutables y a pagar una reparación digna de Q.56,000.00 </t>
-  </si>
-  <si>
     <t>Ronald René Ramírez Montejo</t>
   </si>
   <si>
-    <t>El 26 de octubre del 2017 dio muerte a su compañera de hogar Claudia Eunice Villegas Gonzáles, a quien degolló con un arma blanca, dejando su cadáver abandonado en el interior de un automóvil en el departamento de Huehuetenango.</t>
-  </si>
-  <si>
     <t xml:space="preserve">33 años con 8 meses de prisión inconmutables y el pago de una reparación digna de Q. 22,247.00 </t>
   </si>
   <si>
@@ -486,27 +444,9 @@
     <t>El 03 de julio de 2014 el procesado se conducía como taxista y aprovechando que la usuaria del transporte se encontraba sola, la llevó a un lugar desconocido y despoblado, bajo amenazas de muerte la violentó sexualmente, posteriormente la despojó de sus pertenencias y obligó a retirar dinero de un cajero automático</t>
   </si>
   <si>
-    <t>sentenciado a 25 años de prisión</t>
-  </si>
-  <si>
-    <t>Alberto Ical Pop de 43 años</t>
-  </si>
-  <si>
-    <t>El 17 de octubre de 2016, en el departamento de Izabal, el sentenciado agredió físicamente a su esposa Reyna Isabel Roque Aguilar, a quien con un destornillador hirió en el pecho lesiones que posteriormente le causaron la muerte.</t>
-  </si>
-  <si>
-    <t>Zacapa ,</t>
-  </si>
-  <si>
-    <t>41 años de prisión. 25 años por el delito de femicidio, y 16 años por el delito de violación.</t>
-  </si>
-  <si>
     <t>Victor Hugo Herrera Herrera</t>
   </si>
   <si>
-    <t>El 14 de noviembre de 2016 el sentenciado en su vivienda ubicada en Zacapa, violentó sexualmente a una niña, a quien posteriormente estranguló, abandonando el cuerpo sin vida en un área boscosa.</t>
-  </si>
-  <si>
     <t>Guatemala ,</t>
   </si>
   <si>
@@ -549,27 +489,12 @@
     <t>La investigación inicio con la denuncia donde se informó que un niño fue trasladado al Hospital Nacional de Amatitlán, luego de ser lanzado por su padrastro por las gradas de su casa. La hermana de la víctima declaró que el padrastro los agredía físicamente. Los datos fueron corroborados por la Fiscalía por medio de un allanamiento donde se localizó varias evidencias.</t>
   </si>
   <si>
-    <t>Izabal ,</t>
-  </si>
-  <si>
-    <t>25 años de prisión inconmutables. En consenso PGN se determina reparación digna y queda abierta en la vía civil.</t>
-  </si>
-  <si>
     <t>Alberto Ical Pop</t>
   </si>
   <si>
-    <t>El 17 de octubre de 2016 Reyna Isabel Roque Aguilar de 34 años, se encontraba en su casa, en Izabal, cuando discutía con Ical Pop, quien en represalia le clavó un destornillador en el pecho en presencia de sus cinco hijas, a consecuencias de las heridas es trasladada al Hospital de Izabal donde falleció.</t>
-  </si>
-  <si>
-    <t>30 años de prisión inconmutables.</t>
-  </si>
-  <si>
     <t>Alfonso Marroquín Zuñiga</t>
   </si>
   <si>
-    <t>El 04 de enero de 2017 Marroquín Zuñiga aproximadamente a las 19:00 horas le dio muerte a una mujer ocasionándole 23 heridas con arma blanca. Posteriormente abandonó el cadáver en la vía pública.</t>
-  </si>
-  <si>
     <t xml:space="preserve">513 años </t>
   </si>
   <si>
@@ -597,15 +522,6 @@
     <t>El condenado agredió sexualmente a una niña durante siete años. Posteriormente en su adolescencia, a los 14 años a consecuencia de la violación, sufrió un embarazo. La investigación de la Fiscalía determinó que su victimario cometió el delito de violación en forma continua desde que la niña tenía 10 años. Ella logró denunciar los hechos en el año 2013 cuando cumplió 19 años.</t>
   </si>
   <si>
-    <t>36 años de prisión inconmutables</t>
-  </si>
-  <si>
-    <t>Estuardo Saúl Rivera Catalán</t>
-  </si>
-  <si>
-    <t>El 16 de septiembre de 2017 Rivera Catalán extorsionó a una mujer, al no estar conforme con la cantidad de dinero entregado, le disparó en varias ocasiones. Luego se fugó en una motocicleta. La víctima fue trasladada al Hospital San Juan de Dios y sobrevivió al ataque.</t>
-  </si>
-  <si>
     <t>27 años de prisión.</t>
   </si>
   <si>
@@ -702,27 +618,6 @@
     <t>En septiembre del 2012, el acusado llegó a un comedor en la ciudad capital, donde le indicó a una adolescente de 15 años que la llevaría a un nuevo lugar de trabajo; abordaron un bus extraurbano y en el kilómetro 35 de la carretera a El Salvador y tiempo después descendieron. Él adentro a la víctima en los cafetales en donde la violentó sexualmente.</t>
   </si>
   <si>
-    <t>El Progreso ,</t>
-  </si>
-  <si>
-    <t>40 años de prisión inconmutables a cada sindicado y 8 años por asociación ilícita. Reparación digna queda abierta en la vía civil.</t>
-  </si>
-  <si>
-    <t>Enrique Gamaliel Marroquín Mejía, Luis Alfonso Pérez Rodas</t>
-  </si>
-  <si>
-    <t>El 22 de marzo 2017, Maria Luz López se encontraba en compañía de su nieto en el Departamento El Progreso. Las investigaciones determinaron que la víctima estaba amenazada de muerte, por integrantes de la organización criminal “”Los del Punto””, quienes con arma de fuego, les dispararon. Ambos fallecieron por la gravedad de las heridas.</t>
-  </si>
-  <si>
-    <t>40 años de prisión inconmutables a cada uno. Reparación digna queda abierta en la vía civil.</t>
-  </si>
-  <si>
-    <t>Héctor Anibal Méndez Reyes, Jansy Staysi Jair Arias, Dany Fernando Barrera Morejón</t>
-  </si>
-  <si>
-    <t>El 03 de diciembre del 2016, los tres condenados se llevaron bajo amenazas de muerte en un moto taxi a Clara Luz Cortez Ramírez. Posteriormente le ocasionaron la muerte por múltiples golpes en el cráneo, la decapitaron y abandonaron las partes de su cuerpo en diferentes partes del departamento de El Progreso.</t>
-  </si>
-  <si>
     <t xml:space="preserve">24 años de prisión inconmutables. Reparación digna Q.15,000.00 </t>
   </si>
   <si>
@@ -789,27 +684,12 @@
     <t>Del año 2012 al 2015, el acusado en repetidas ocasiones violento sexualmente de su hija menor de edad.</t>
   </si>
   <si>
-    <t>Suchitepequez , Mazatenango</t>
-  </si>
-  <si>
-    <t>40 años de prisión inconmutables. Reparación digna queda abierta en la vía civil.</t>
-  </si>
-  <si>
     <t>Florencio Aníbal de la Cruz Avalos</t>
   </si>
   <si>
-    <t>El 6 de febrero del año 2016, Ana Lucía Arreaga Escobedo salió de su residencia ubicada en Mazatenango, cuando una persona a bordo de una motocicleta le disparó con un arma de fuego, ocasionándole la muerte. La investigación determinó que el arma utilizada pertenece a De la Cruz Avalos miembro de la estructura criminal “”los de la O””.</t>
-  </si>
-  <si>
-    <t>25 años de prisión inconmutables.</t>
-  </si>
-  <si>
     <t>Edruan Manolo Aldana Alejandro</t>
   </si>
   <si>
-    <t>El 01 de junio de 2018, Aldana Alejandro, luego de una discusión fuera del inmueble donde vivía con su conviviente, Lucía Claribell Espina Ortiz, con quien procreó cuatro hijos y uno más estado de gestación, disparó hacia la puerta de dicho domicilio con pleno conocimiento de que ella se encontraba detrás de la misma. La víctima falleció en el lugar.</t>
-  </si>
-  <si>
     <t>14 años de prisión inconmutables.</t>
   </si>
   <si>
@@ -876,24 +756,9 @@
     <t>En el 2018, en el departamento de Petén; el acusado violentó sexualmente de su hija de 9 años, en repetidas ocasiones, la amenazó con que la mataría a ella, a sus hermanas y a su mamá si les contaba los hechos.</t>
   </si>
   <si>
-    <t xml:space="preserve">35 años de prisión inconmutables. </t>
-  </si>
-  <si>
     <t>Luis Alberto García</t>
   </si>
   <si>
-    <t>El 22 de septiembre de 2017, Luis Alberto García, le provocó la muerte a Vilma Lisbeth Escobar Hernández, luego de atacarla con arma de fuego.</t>
-  </si>
-  <si>
-    <t>25 años de prisión inconmutables y 16 años de prisión inconmutables (complicidad)</t>
-  </si>
-  <si>
-    <t>Fredy David Pérez Martínez Y Juan José Romero Inocente</t>
-  </si>
-  <si>
-    <t>El 03 de noviembre de 2016, Fredy David Pérez Martínez le provocó la muerte a Gladys Bernarda Patzán luego de estrangularla. El cuerpo lo recogió José Romero Inocente, piloto de un taxi, lo transportó en el baúl del vehículo y luego lo abandonó.</t>
-  </si>
-  <si>
     <t>20 años de prisión inconmutables. Reparación digna se deja abierta la vía civil.</t>
   </si>
   <si>
@@ -1183,13 +1048,310 @@
   </si>
   <si>
     <t>Descripción Delito</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>No Indicado</t>
+  </si>
+  <si>
+    <t>30 años en prisión inconmutables</t>
+  </si>
+  <si>
+    <t>25 años en prisión inconmutables</t>
+  </si>
+  <si>
+    <t>48 años en prisión inconmutables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 años en prisión inconmutables y a pago de una reparación digna de Q.56,000.00 </t>
+  </si>
+  <si>
+    <t>Huehuetenango</t>
+  </si>
+  <si>
+    <t>Zacapa</t>
+  </si>
+  <si>
+    <t>41 años en prisión. 25 años por el delito de femicidio y 16 años por el delito de violación.</t>
+  </si>
+  <si>
+    <t>Izabal</t>
+  </si>
+  <si>
+    <t>25 años en prisión inconmutables. En consenso PGN se determina reparación digna y queda abierta en la vía civil.</t>
+  </si>
+  <si>
+    <t>40 años en prisión inconmutables a cada sindicado y 8 años por asociación ilícita. Reparación digna queda abierta en la vía civil.</t>
+  </si>
+  <si>
+    <t>El Progreso</t>
+  </si>
+  <si>
+    <t>Enrique Gamaliel Marroquín Mejía</t>
+  </si>
+  <si>
+    <t>Luis Alfonso Pérez Rodas</t>
+  </si>
+  <si>
+    <t>40 años en prisión inconmutables a cada uno. Reparación digna queda abierta en la vía civil.</t>
+  </si>
+  <si>
+    <t>Dany Fernando Barrera Morejón</t>
+  </si>
+  <si>
+    <t>Héctor Anibal Méndez Reyes</t>
+  </si>
+  <si>
+    <t>Jansy Staysi Jair Arias</t>
+  </si>
+  <si>
+    <t>Suchitepéquez</t>
+  </si>
+  <si>
+    <t>Mazatenango</t>
+  </si>
+  <si>
+    <t>40 años en prisión inconmutables. Reparación digna queda abierta en la vía civil.</t>
+  </si>
+  <si>
+    <t>35 años en prisión inconmutables</t>
+  </si>
+  <si>
+    <t>16 años en prisión inconmutables (por complicidad)</t>
+  </si>
+  <si>
+    <t>Fredy David Pérez Martínez</t>
+  </si>
+  <si>
+    <t>Juan José Romero Inocente</t>
+  </si>
+  <si>
+    <t>Villa Nueva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 años en prisión en régimen cerrado </t>
+  </si>
+  <si>
+    <t>Brany Andrés Barrientos Sánchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilber Sarbelio </t>
+  </si>
+  <si>
+    <t>Pablo Rosales</t>
+  </si>
+  <si>
+    <t>Víctima</t>
+  </si>
+  <si>
+    <t>Ángela Elizabeth Hernández Canté</t>
+  </si>
+  <si>
+    <t>Jennifer Elizabeth Pernillo</t>
+  </si>
+  <si>
+    <t>Karina Magali Gómez Gómez</t>
+  </si>
+  <si>
+    <t>Claudia Eunice Villegas Gonzáles</t>
+  </si>
+  <si>
+    <t>Reyna Isabel Roque Aguilar</t>
+  </si>
+  <si>
+    <t>Nombre no indicado</t>
+  </si>
+  <si>
+    <t>Maria Luz López</t>
+  </si>
+  <si>
+    <t>Clara Luz Cortez Ramírez</t>
+  </si>
+  <si>
+    <t>Ana Lucía Arreaga Escobedo</t>
+  </si>
+  <si>
+    <t>Lucía Claribell Espina Ortiz</t>
+  </si>
+  <si>
+    <t>Vilma Lisbeth Escobar Hernández</t>
+  </si>
+  <si>
+    <t>Gladys Bernarda Patzán</t>
+  </si>
+  <si>
+    <t>Andrea Yamileth Prado García</t>
+  </si>
+  <si>
+    <t>María Consuelo Gaitán Blanco</t>
+  </si>
+  <si>
+    <t>Luego de una discusión, Daniel Valiente Ventura de San Marcos, quien agredía constantemente a su conviviente, tomó un arma de fuego y realizó al menos ocho disparos en contra de Karina Magali Gómez Gómez, quien se encontraba en estado de gestación. Por las heridas falleció inmediatamente. El victimario se dio a la fuga pero fue detenido por agentes policiales con el arma.</t>
+  </si>
+  <si>
+    <t>Fecha Delito</t>
+  </si>
+  <si>
+    <t>4 de febrero de 2019</t>
+  </si>
+  <si>
+    <t>18 de septiembre de 2020</t>
+  </si>
+  <si>
+    <t>7 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>21 de agosto de 2020</t>
+  </si>
+  <si>
+    <t>El acusado le disparó en repetidas ocasiones a Jennifer Elizabeth Pernillo, frente a su hija menor, causándole la muerte de manera inmediata. Posterior al hecho se dio a la fuga a bordo de una motocicleta.</t>
+  </si>
+  <si>
+    <t>14 de marzo de 2020</t>
+  </si>
+  <si>
+    <t>10 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>26 de octubre de 2017</t>
+  </si>
+  <si>
+    <t>Dio muerte a su compañera de hogar Claudia Eunice Villegas Gonzáles, a quien degolló con un arma blanca, dejando su cadáver abandonado en el interior de un automóvil en el departamento de Huehuetenango.</t>
+  </si>
+  <si>
+    <t>12 de junio de 2018</t>
+  </si>
+  <si>
+    <t>14 de noviembre de 2016</t>
+  </si>
+  <si>
+    <t>El sentenciado, en su vivienda ubicada en Zacapa, violentó sexualmente a una niña, a quien posteriormente estranguló, abandonando el cuerpo sin vida en un área boscosa.</t>
+  </si>
+  <si>
+    <t>Le dispararon en repetidas ocasiones a Ángela Elizabeth Hernández Canté, provocándole muerte inmediata.</t>
+  </si>
+  <si>
+    <t>16 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>17 de octubre de 2016</t>
+  </si>
+  <si>
+    <t>Reyna Isabel Roque Aguilar, de 34 años, se encontraba en su casa en Izabal cuando discutía con Ical Pop, quien en represalia le clavó un destornillador en el pecho en presencia de sus cinco hijas. A consecuencias de las heridas es trasladada al Hospital de Izabal donde falleció.</t>
+  </si>
+  <si>
+    <t>16 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>4 de enero de 2017</t>
+  </si>
+  <si>
+    <t>Marroquín Zuñiga, aproximadamente a las 19:00 horas, le dio muerte a una mujer al ocasionarle 23 heridas con un arma blanca. Posteriormente abandonó el cadáver en la vía pública.</t>
+  </si>
+  <si>
+    <t>10 de junio de 2019</t>
+  </si>
+  <si>
+    <t>22 de marzo de 2017</t>
+  </si>
+  <si>
+    <t>Maria Luz López se encontraba en compañía de su nieto en el Departamento El Progreso. Las investigaciones determinaron que la víctima estaba amenazada de muerte, por integrantes de la organización criminal ”Los del Punto”, quienes con arma de fuego les dispararon. Ambos fallecieron por la gravedad de las heridas.</t>
+  </si>
+  <si>
+    <t>3 de diciembre de 2016</t>
+  </si>
+  <si>
+    <t>Los tres condenados se llevaron en un moto taxi y bajo amenazas de muerte a Clara Luz Cortez Ramírez. Posteriormente le ocasionaron la muerte por múltiples golpes en el cráneo, la decapitaron y abandonaron las partes de su cuerpo en diferentes partes del departamento de El Progreso.</t>
+  </si>
+  <si>
+    <t>5 de junio de 2019</t>
+  </si>
+  <si>
+    <t>11 de junio de 2019</t>
+  </si>
+  <si>
+    <t>15 de julio de 2019</t>
+  </si>
+  <si>
+    <t>20 de agosto de 2019</t>
+  </si>
+  <si>
+    <t>6 de febrero de 2020</t>
+  </si>
+  <si>
+    <t>16 de noviembre de 2019</t>
+  </si>
+  <si>
+    <t>31 de octubre de 2019</t>
+  </si>
+  <si>
+    <t>6 de febrero de 2016</t>
+  </si>
+  <si>
+    <t>Ana Lucía Arreaga Escobedo salió de su residencia ubicada en Mazatenango, cuando una persona a bordo de una motocicleta le disparó con un arma de fuego, ocasionándole la muerte. La investigación determinó que el arma utilizada pertenece a De la Cruz Avalos miembro de la estructura criminal ”Los de la O”.</t>
+  </si>
+  <si>
+    <t>1 de junio de 2018</t>
+  </si>
+  <si>
+    <t>Aldana Alejandro, luego de una discusión fuera del inmueble donde vivía con su conviviente Lucía Claribell Espina Ortiz (con quien procreó cuatro hijos y uno más estado de gestación), disparó hacia la puerta de dicho domicilio con pleno conocimiento de que ella se encontraba detrás de la misma. La víctima falleció en el lugar.</t>
+  </si>
+  <si>
+    <t>22 de septiembre de 2017</t>
+  </si>
+  <si>
+    <t>Luis Alberto García le provocó la muerte a Vilma Lisbeth Escobar Hernández, luego de atacarla con un arma de fuego.</t>
+  </si>
+  <si>
+    <t>3 de noviembre de 2016</t>
+  </si>
+  <si>
+    <t>Fredy David Pérez Martínez le provocó la muerte a Gladys Bernarda Patzán luego de estrangularla. El cuerpo lo recogió José Romero Inocente, piloto de un taxi, lo transportó en el baúl del vehículo y luego lo abandonó.</t>
+  </si>
+  <si>
+    <t>28 de noviembre de 2018</t>
+  </si>
+  <si>
+    <t>Jorge Alberto Díaz Zapata de 18 años, valiéndose de las relaciones desiguales de poder, asfixió y estranguló a su conviviente Andrea Yamileth Prado García de 25 años, causándole la muerte. Luego del hecho abandonó el cadáver en una zona de la ciudad capital.</t>
+  </si>
+  <si>
+    <t>25 de junio de 2018</t>
+  </si>
+  <si>
+    <t>El condenado se acercó a María Consuelo Gaitán Blanco de 52 años y sin mediar palabra le disparó con un arma de fuego.</t>
+  </si>
+  <si>
+    <t>27 de octubre de 2017</t>
+  </si>
+  <si>
+    <t>Uno de los condenados violentó sexualmente a una adolescente, a quien atacaron con golpes en la cabeza. Esto produjo un trauma craneoencefálico que le causó la muerte. Posteriormente envolvieron el cadáver en tela y lo abandonaron en un sembradillo de milpa.</t>
+  </si>
+  <si>
+    <t>Delito</t>
+  </si>
+  <si>
+    <t>5 de marzo de 2019</t>
+  </si>
+  <si>
+    <t>Violación Sexual</t>
+  </si>
+  <si>
+    <t>Puerto Barrios</t>
+  </si>
+  <si>
+    <t>Mixco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,13 +1359,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1218,9 +1392,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,1378 +1715,1070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4624A5-F142-4104-9DED-55B26AD03304}">
-  <dimension ref="A1:I478"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" t="s">
+        <v>370</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" t="s">
+        <v>371</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H6" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" t="s">
+        <v>372</v>
+      </c>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I7" t="s">
+        <v>373</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" t="s">
+        <v>397</v>
+      </c>
+      <c r="I8" t="s">
+        <v>375</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" t="s">
+        <v>397</v>
+      </c>
+      <c r="I9" t="s">
+        <v>375</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" t="s">
+        <v>401</v>
+      </c>
+      <c r="I10" t="s">
+        <v>374</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I11" t="s">
+        <v>375</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" t="s">
+        <v>407</v>
+      </c>
+      <c r="I12" t="s">
+        <v>376</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H13" t="s">
+        <v>407</v>
+      </c>
+      <c r="I13" t="s">
+        <v>376</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I14" t="s">
+        <v>377</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" t="s">
+        <v>409</v>
+      </c>
+      <c r="I15" t="s">
+        <v>377</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H16" t="s">
+        <v>409</v>
+      </c>
+      <c r="I16" t="s">
+        <v>377</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H17" t="s">
+        <v>418</v>
+      </c>
+      <c r="I17" t="s">
+        <v>378</v>
+      </c>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H18" t="s">
+        <v>420</v>
+      </c>
+      <c r="I18" t="s">
         <v>379</v>
       </c>
-      <c r="B1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" t="s">
+        <v>422</v>
+      </c>
+      <c r="I19" t="s">
         <v>380</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H20" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H21" t="s">
+        <v>424</v>
+      </c>
+      <c r="I21" t="s">
+        <v>381</v>
+      </c>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" t="s">
+        <v>426</v>
+      </c>
+      <c r="I22" t="s">
+        <v>382</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H23" t="s">
+        <v>428</v>
+      </c>
+      <c r="I23" t="s">
+        <v>383</v>
+      </c>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H24" t="s">
+        <v>430</v>
+      </c>
+      <c r="I24" t="s">
+        <v>375</v>
+      </c>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H25" t="s">
+        <v>430</v>
+      </c>
+      <c r="I25" t="s">
+        <v>375</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H26" t="s">
+        <v>430</v>
+      </c>
+      <c r="I26" t="s">
+        <v>375</v>
+      </c>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="1">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
+    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N59" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="3">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N68" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N76" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="1">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I61" s="1">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I83" s="1">
-        <v>44064</v>
-      </c>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I89" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I92" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I93" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I103" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I107" s="1">
-        <v>43904</v>
-      </c>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I111" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I113" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I121" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I125" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I129" s="1">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I133" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I135" t="s">
+    <row r="77" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N78" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N80" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N82" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N84" s="3">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I141" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I145" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I149" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I151" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I153" s="1">
-        <v>43353</v>
-      </c>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I157" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I158" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I159" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I163" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I165" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I169" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I173" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I177" s="1">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I181" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I182" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I183" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I185" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I187" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I189" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I191" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I193" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I195" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I197" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I199" s="1">
-        <v>43263</v>
-      </c>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I203" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I204" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I205" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I206" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I209" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I210" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I212" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I214" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I216" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I220" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I222" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I224" s="1">
-        <v>43359</v>
-      </c>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I226" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I228" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I229" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I230" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I231" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I234" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I236" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I238" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I240" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I242" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I244" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I246" s="1">
-        <v>43420</v>
-      </c>
-    </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I248" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I250" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I251" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I254" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I257" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I259" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I261" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I263" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I265" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I267" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I269" s="1">
-        <v>43543</v>
-      </c>
-    </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I271" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I273" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I274" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I277" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I278" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I280" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I282" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I284" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I286" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I288" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I290" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I292" s="1">
-        <v>43626</v>
-      </c>
-    </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I294" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I296" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I297" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I298" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I299" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I300" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I302" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I304" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I306" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I308" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I310" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I314" s="1">
-        <v>43626</v>
-      </c>
-    </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I316" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I318" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I319" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I322" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I323" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I325" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I327" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I329" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I331" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I333" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I335" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I337" s="1">
-        <v>43621</v>
-      </c>
-    </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I339" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I341" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I342" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I343" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I344" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I345" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I347" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I349" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I351" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I353" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I355" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I357" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I359" s="1">
-        <v>43627</v>
-      </c>
-    </row>
-    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I361" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I363" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I364" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I365" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I368" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I369" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I371" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I373" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I375" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I377" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I379" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I381" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I383" s="1">
-        <v>43661</v>
-      </c>
-    </row>
-    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I385" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I387" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I388" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I389" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I390" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I391" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I393" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I395" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="397" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I397" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="399" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I399" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="401" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I401" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="403" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I403" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="405" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I405" s="1">
-        <v>43697</v>
-      </c>
-    </row>
-    <row r="407" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I407" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="409" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I409" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="410" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I410" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="411" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I411" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="414" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I414" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="415" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I415" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I417" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="419" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I419" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I421" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I423" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I425" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I427" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I429" s="1">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I431" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I433" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="434" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I434" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="435" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I435" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="436" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I436" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I438" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="440" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I440" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I442" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="444" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I444" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I446" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="448" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I448" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="450" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I450" s="1">
-        <v>43785</v>
-      </c>
-    </row>
-    <row r="452" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I452" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="454" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I454" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="455" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I455" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="456" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I456" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="457" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I457" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I459" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="461" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I461" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I463" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="465" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I465" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="467" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I467" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="469" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I469" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="471" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I471" s="1">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="473" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I473" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="475" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I475" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="476" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I476" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="477" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I477" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="478" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I478" t="s">
-        <v>81</v>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3063,7 +2931,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -3073,7 +2941,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -3083,7 +2951,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -3093,7 +2961,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -3113,17 +2981,17 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -3133,7 +3001,7 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -3143,7 +3011,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -3153,7 +3021,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -3173,12 +3041,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -3188,7 +3056,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -3198,7 +3066,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3208,7 +3076,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -3228,17 +3096,17 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -3248,7 +3116,7 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -3258,12 +3126,12 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -3273,7 +3141,7 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
@@ -3293,22 +3161,22 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -3318,7 +3186,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
@@ -3328,7 +3196,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -3338,7 +3206,7 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
@@ -3358,12 +3226,12 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
@@ -3373,7 +3241,7 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -3383,7 +3251,7 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -3393,7 +3261,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
@@ -3413,17 +3281,17 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
@@ -3443,7 +3311,7 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
@@ -3453,7 +3321,7 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
@@ -3473,12 +3341,12 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
@@ -3493,7 +3361,7 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
@@ -3503,7 +3371,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
@@ -3513,7 +3381,7 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
@@ -3523,7 +3391,7 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
@@ -3543,17 +3411,17 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
@@ -3573,7 +3441,7 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -3583,7 +3451,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -3603,7 +3471,7 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
@@ -3613,7 +3481,7 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -3633,7 +3501,7 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
@@ -3643,7 +3511,7 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
@@ -3663,12 +3531,12 @@
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
@@ -3683,7 +3551,7 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -3693,7 +3561,7 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -3703,7 +3571,7 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -3723,12 +3591,12 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -3753,7 +3621,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
@@ -3763,7 +3631,7 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
@@ -3783,7 +3651,7 @@
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
@@ -3793,12 +3661,12 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
@@ -3808,7 +3676,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
@@ -3818,7 +3686,7 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
@@ -3828,7 +3696,7 @@
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
@@ -3848,22 +3716,22 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
@@ -3873,7 +3741,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
@@ -3883,7 +3751,7 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
@@ -3893,7 +3761,7 @@
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
@@ -3913,22 +3781,22 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
@@ -3938,7 +3806,7 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
@@ -3948,7 +3816,7 @@
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
@@ -3958,7 +3826,7 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -3978,22 +3846,22 @@
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
@@ -4003,7 +3871,7 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
@@ -4013,7 +3881,7 @@
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
@@ -4023,7 +3891,7 @@
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
@@ -4043,22 +3911,22 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
@@ -4068,7 +3936,7 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
@@ -4078,7 +3946,7 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -4088,7 +3956,7 @@
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
@@ -4108,22 +3976,22 @@
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
@@ -4143,7 +4011,7 @@
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
@@ -4153,7 +4021,7 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
@@ -4173,17 +4041,17 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
@@ -4203,7 +4071,7 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -4213,7 +4081,7 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -4233,17 +4101,17 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
@@ -4253,7 +4121,7 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
@@ -4263,7 +4131,7 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -4273,7 +4141,7 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
@@ -4293,17 +4161,17 @@
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
@@ -4318,7 +4186,7 @@
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
@@ -4328,7 +4196,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
@@ -4338,7 +4206,7 @@
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
@@ -4358,22 +4226,22 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
@@ -4393,7 +4261,7 @@
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
@@ -4403,7 +4271,7 @@
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
@@ -4423,17 +4291,17 @@
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
@@ -4448,7 +4316,7 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
@@ -4458,7 +4326,7 @@
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
@@ -4468,7 +4336,7 @@
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
@@ -4488,12 +4356,12 @@
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
@@ -4508,7 +4376,7 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
@@ -4518,7 +4386,7 @@
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
@@ -4528,7 +4396,7 @@
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
@@ -4548,17 +4416,17 @@
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
@@ -4573,7 +4441,7 @@
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
@@ -4583,7 +4451,7 @@
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
@@ -4593,7 +4461,7 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
@@ -4613,12 +4481,12 @@
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
@@ -4633,7 +4501,7 @@
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
@@ -4643,7 +4511,7 @@
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
@@ -4653,7 +4521,7 @@
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
@@ -4673,12 +4541,12 @@
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
@@ -4693,7 +4561,7 @@
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
@@ -4703,7 +4571,7 @@
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
@@ -4713,7 +4581,7 @@
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
@@ -4733,17 +4601,17 @@
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
@@ -4753,7 +4621,7 @@
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
@@ -4763,7 +4631,7 @@
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
@@ -4773,7 +4641,7 @@
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
@@ -4793,17 +4661,17 @@
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
@@ -4813,7 +4681,7 @@
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
@@ -4823,7 +4691,7 @@
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
@@ -4833,7 +4701,7 @@
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
@@ -4853,17 +4721,17 @@
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
@@ -4878,7 +4746,7 @@
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
@@ -4888,7 +4756,7 @@
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
@@ -4898,7 +4766,7 @@
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
@@ -4918,12 +4786,12 @@
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
@@ -4938,7 +4806,7 @@
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
@@ -4948,7 +4816,7 @@
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
@@ -4958,7 +4826,7 @@
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
@@ -4978,12 +4846,12 @@
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
@@ -4998,7 +4866,7 @@
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
@@ -5008,7 +4876,7 @@
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
@@ -5018,7 +4886,7 @@
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
@@ -5038,12 +4906,12 @@
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
@@ -5058,7 +4926,7 @@
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
@@ -5068,7 +4936,7 @@
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
@@ -5078,7 +4946,7 @@
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
@@ -5098,17 +4966,17 @@
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
@@ -5118,7 +4986,7 @@
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
@@ -5128,7 +4996,7 @@
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
@@ -5138,7 +5006,7 @@
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
@@ -5158,17 +5026,17 @@
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
@@ -5178,7 +5046,7 @@
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
@@ -5188,7 +5056,7 @@
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
@@ -5198,7 +5066,7 @@
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
@@ -5218,17 +5086,17 @@
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
@@ -5238,7 +5106,7 @@
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
@@ -5248,7 +5116,7 @@
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
@@ -5258,7 +5126,7 @@
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
@@ -5278,22 +5146,22 @@
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
@@ -5303,7 +5171,7 @@
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
@@ -5313,7 +5181,7 @@
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
@@ -5323,7 +5191,7 @@
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
@@ -5343,17 +5211,17 @@
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
@@ -5368,7 +5236,7 @@
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
@@ -5378,7 +5246,7 @@
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
@@ -5388,7 +5256,7 @@
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
@@ -5408,12 +5276,12 @@
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
@@ -5428,7 +5296,7 @@
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
@@ -5438,7 +5306,7 @@
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
@@ -5448,7 +5316,7 @@
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
@@ -5468,12 +5336,12 @@
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
@@ -5488,7 +5356,7 @@
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
@@ -5498,7 +5366,7 @@
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
@@ -5508,7 +5376,7 @@
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
@@ -5528,17 +5396,17 @@
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
@@ -5548,7 +5416,7 @@
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
@@ -5558,7 +5426,7 @@
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
@@ -5568,7 +5436,7 @@
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
@@ -5588,22 +5456,22 @@
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
@@ -5613,7 +5481,7 @@
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
@@ -5623,7 +5491,7 @@
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
@@ -5633,7 +5501,7 @@
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
@@ -5653,12 +5521,12 @@
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
@@ -5673,7 +5541,7 @@
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
@@ -5683,7 +5551,7 @@
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
@@ -5693,7 +5561,7 @@
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
@@ -5713,17 +5581,17 @@
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
@@ -5733,7 +5601,7 @@
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
@@ -5743,7 +5611,7 @@
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
@@ -5753,7 +5621,7 @@
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
@@ -5773,12 +5641,12 @@
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
@@ -5803,7 +5671,7 @@
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
@@ -5813,7 +5681,7 @@
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
@@ -5833,12 +5701,12 @@
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
@@ -5853,7 +5721,7 @@
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
@@ -5863,7 +5731,7 @@
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
@@ -5873,7 +5741,7 @@
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
@@ -5893,12 +5761,12 @@
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
@@ -5913,7 +5781,7 @@
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
@@ -5923,7 +5791,7 @@
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
@@ -5933,7 +5801,7 @@
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
@@ -5953,12 +5821,12 @@
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
@@ -5973,7 +5841,7 @@
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
@@ -5983,7 +5851,7 @@
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
@@ -5993,7 +5861,7 @@
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
@@ -6013,17 +5881,17 @@
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
@@ -6043,7 +5911,7 @@
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
@@ -6053,7 +5921,7 @@
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
@@ -6073,17 +5941,17 @@
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
@@ -6093,7 +5961,7 @@
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
@@ -6103,7 +5971,7 @@
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
@@ -6113,7 +5981,7 @@
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
@@ -6133,17 +6001,17 @@
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
@@ -6153,7 +6021,7 @@
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
@@ -6163,7 +6031,7 @@
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
@@ -6173,7 +6041,7 @@
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
@@ -6193,17 +6061,17 @@
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
@@ -6213,7 +6081,7 @@
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
@@ -6223,7 +6091,7 @@
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
@@ -6233,7 +6101,7 @@
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
@@ -6253,17 +6121,17 @@
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
@@ -6283,7 +6151,7 @@
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
@@ -6293,7 +6161,7 @@
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
@@ -6313,17 +6181,17 @@
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
@@ -6333,7 +6201,7 @@
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
@@ -6343,7 +6211,7 @@
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
@@ -6353,7 +6221,7 @@
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
@@ -6373,12 +6241,12 @@
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
@@ -6393,7 +6261,7 @@
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
@@ -6403,7 +6271,7 @@
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
@@ -6413,7 +6281,7 @@
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
@@ -6433,12 +6301,12 @@
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
@@ -6453,7 +6321,7 @@
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
@@ -6463,7 +6331,7 @@
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
@@ -6473,7 +6341,7 @@
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
@@ -6493,17 +6361,17 @@
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
@@ -6513,7 +6381,7 @@
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
@@ -6523,7 +6391,7 @@
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
@@ -6533,7 +6401,7 @@
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
@@ -6553,22 +6421,22 @@
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
@@ -6578,7 +6446,7 @@
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
@@ -6588,7 +6456,7 @@
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
@@ -6598,7 +6466,7 @@
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
@@ -6618,22 +6486,22 @@
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
@@ -6643,7 +6511,7 @@
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
@@ -6653,7 +6521,7 @@
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
@@ -6663,7 +6531,7 @@
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
@@ -6683,12 +6551,12 @@
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
@@ -6703,7 +6571,7 @@
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
@@ -6713,7 +6581,7 @@
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
@@ -6723,7 +6591,7 @@
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
@@ -6743,17 +6611,17 @@
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
@@ -6763,7 +6631,7 @@
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
@@ -6773,7 +6641,7 @@
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
@@ -6783,7 +6651,7 @@
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
@@ -6803,12 +6671,12 @@
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
@@ -6823,7 +6691,7 @@
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
@@ -6833,7 +6701,7 @@
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
@@ -6843,7 +6711,7 @@
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
@@ -6863,17 +6731,17 @@
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
@@ -6888,7 +6756,7 @@
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
@@ -6898,7 +6766,7 @@
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
@@ -6908,7 +6776,7 @@
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
@@ -6928,17 +6796,17 @@
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
@@ -6953,7 +6821,7 @@
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
@@ -6963,7 +6831,7 @@
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
@@ -6973,7 +6841,7 @@
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
@@ -6993,17 +6861,17 @@
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
@@ -7018,7 +6886,7 @@
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
@@ -7028,7 +6896,7 @@
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
@@ -7038,7 +6906,7 @@
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
@@ -7058,17 +6926,17 @@
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
@@ -7083,7 +6951,7 @@
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
@@ -7093,7 +6961,7 @@
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
@@ -7103,7 +6971,7 @@
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
@@ -7123,17 +6991,17 @@
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
@@ -7158,7 +7026,7 @@
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
@@ -7168,7 +7036,7 @@
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
@@ -7188,22 +7056,22 @@
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
@@ -7223,7 +7091,7 @@
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
@@ -7233,7 +7101,7 @@
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
@@ -7253,17 +7121,17 @@
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
@@ -7278,7 +7146,7 @@
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
@@ -7288,7 +7156,7 @@
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
@@ -7298,7 +7166,7 @@
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
@@ -7318,17 +7186,17 @@
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
@@ -7343,7 +7211,7 @@
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
@@ -7353,7 +7221,7 @@
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1557" spans="1:1" x14ac:dyDescent="0.25">
@@ -7363,7 +7231,7 @@
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
@@ -7383,22 +7251,22 @@
     </row>
     <row r="1567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1567" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1568" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1569" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
@@ -7408,7 +7276,7 @@
     </row>
     <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1573" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
@@ -7418,7 +7286,7 @@
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
@@ -7428,7 +7296,7 @@
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
@@ -7448,17 +7316,17 @@
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1589" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
@@ -7473,7 +7341,7 @@
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1595" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
@@ -7483,7 +7351,7 @@
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1599" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
@@ -7493,7 +7361,7 @@
     </row>
     <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
@@ -7513,17 +7381,17 @@
     </row>
     <row r="1611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1611" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
@@ -7538,7 +7406,7 @@
     </row>
     <row r="1617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1617" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1619" spans="1:1" x14ac:dyDescent="0.25">
@@ -7548,7 +7416,7 @@
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
@@ -7558,7 +7426,7 @@
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
@@ -7578,22 +7446,22 @@
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
@@ -7603,7 +7471,7 @@
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
@@ -7613,7 +7481,7 @@
     </row>
     <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
@@ -7623,7 +7491,7 @@
     </row>
     <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1647" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
@@ -7643,12 +7511,12 @@
     </row>
     <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1655" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
@@ -7663,7 +7531,7 @@
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
@@ -7673,7 +7541,7 @@
     </row>
     <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
@@ -7683,7 +7551,7 @@
     </row>
     <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
@@ -7703,17 +7571,17 @@
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
@@ -7728,7 +7596,7 @@
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
@@ -7738,7 +7606,7 @@
     </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
@@ -7748,7 +7616,7 @@
     </row>
     <row r="1690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1692" spans="1:1" x14ac:dyDescent="0.25">
@@ -7768,17 +7636,17 @@
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
@@ -7793,7 +7661,7 @@
     </row>
     <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
@@ -7803,7 +7671,7 @@
     </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
@@ -7813,7 +7681,7 @@
     </row>
     <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
@@ -7833,17 +7701,17 @@
     </row>
     <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1721" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
@@ -7853,7 +7721,7 @@
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
@@ -7863,7 +7731,7 @@
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1729" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
@@ -7873,7 +7741,7 @@
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1733" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
@@ -7893,12 +7761,12 @@
     </row>
     <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1742" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
@@ -7913,7 +7781,7 @@
     </row>
     <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1746" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
@@ -7923,7 +7791,7 @@
     </row>
     <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1750" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
@@ -7933,7 +7801,7 @@
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
@@ -7953,22 +7821,22 @@
     </row>
     <row r="1762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1763" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1764" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1765" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1766" spans="1:1" x14ac:dyDescent="0.25">
@@ -7988,7 +7856,7 @@
     </row>
     <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1772" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
@@ -7998,7 +7866,7 @@
     </row>
     <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1776" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
@@ -8018,22 +7886,22 @@
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1787" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
@@ -8043,7 +7911,7 @@
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1790" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
@@ -8053,7 +7921,7 @@
     </row>
     <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
@@ -8063,7 +7931,7 @@
     </row>
     <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
@@ -8083,22 +7951,22 @@
     </row>
     <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
@@ -8108,7 +7976,7 @@
     </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
@@ -8118,7 +7986,7 @@
     </row>
     <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
@@ -8128,7 +7996,7 @@
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
@@ -8148,22 +8016,22 @@
     </row>
     <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1828" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
@@ -8183,7 +8051,7 @@
     </row>
     <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
@@ -8193,7 +8061,7 @@
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
@@ -8213,22 +8081,22 @@
     </row>
     <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1850" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1852" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
@@ -8248,7 +8116,7 @@
     </row>
     <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
@@ -8258,7 +8126,7 @@
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
@@ -8278,22 +8146,22 @@
     </row>
     <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
     </row>
     <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1873" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1875" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
@@ -8313,7 +8181,7 @@
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
@@ -8323,7 +8191,7 @@
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1886" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
@@ -8343,17 +8211,17 @@
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
@@ -8363,7 +8231,7 @@
     </row>
     <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
@@ -8373,7 +8241,7 @@
     </row>
     <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
@@ -8383,7 +8251,7 @@
     </row>
     <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
@@ -8403,22 +8271,22 @@
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
@@ -8438,7 +8306,7 @@
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1925" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
@@ -8448,7 +8316,7 @@
     </row>
     <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1929" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
@@ -8468,12 +8336,12 @@
     </row>
     <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1937" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1938" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
@@ -8488,7 +8356,7 @@
     </row>
     <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1943" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
@@ -8498,7 +8366,7 @@
     </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
@@ -8508,7 +8376,7 @@
     </row>
     <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
@@ -8528,17 +8396,17 @@
     </row>
     <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1959" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
@@ -8563,7 +8431,7 @@
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1969" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
@@ -8573,7 +8441,7 @@
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
@@ -8593,17 +8461,17 @@
     </row>
     <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1981" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1982" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1983" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/GUATEMALA/Delitos/Sentencias por Delito 2018-2019-2020.xlsx
+++ b/GUATEMALA/Delitos/Sentencias por Delito 2018-2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F740F126-D223-4CA8-AC4D-0CE6E3B244FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839F84BC-1456-4A04-A871-03C53D1F0E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CAD5BC7-A91E-42EF-81EC-AE0619A760B5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Otros" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="sentencias" localSheetId="0">Femicidio!$N$1:$N$92</definedName>
+    <definedName name="sentencias" localSheetId="0">Femicidio!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,16 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B8024A86-80CC-4A58-B9EB-DA7B6AA8E88C}" name="Conexión" type="4" refreshedVersion="6" background="1" saveData="1">
-    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://observatorio.mp.gob.gt/sentencias"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="431">
   <si>
     <t>Fiscalia de la Niñez y Adolescencia</t>
   </si>
@@ -105,9 +97,6 @@
     <t>Nelson Armando Cano Ochoa</t>
   </si>
   <si>
-    <t>30 años de prisión inconmutables</t>
-  </si>
-  <si>
     <t>Ángel de Jesús Pérez Martínez</t>
   </si>
   <si>
@@ -1014,30 +1003,12 @@
     <t>El sentenciado cometió el delito de Violación con Agravación de la Pena, en contra de una adolescente de 13 años a quien violentó sexualmente.</t>
   </si>
   <si>
-    <t>Guatemala , Villa Nueva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 años de prisión en régimen cerrado </t>
-  </si>
-  <si>
     <t>Jorge Alberto Díaz Zapata</t>
   </si>
   <si>
-    <t>El 28 de noviembre en el municipio de Villa Nueva, Jorge Alberto Díaz Zapata de 18 años, valiéndose de las relaciones desiguales de poder, asfixió y estranguló a su conviviente Andrea Yamileth Prado García de 25 años, causándole la muerte, luego del hecho abandonó el cadáver en una zona de la ciudad capital.</t>
-  </si>
-  <si>
     <t>Menor de edad</t>
   </si>
   <si>
-    <t>El 25 de junio en la ciudad capital, el condenado se acercó a María Consuelo Gaitán Blanco de 52 años y sin mediar palabra le disparó con arma de fuego.</t>
-  </si>
-  <si>
-    <t>Wilber Sarbelio, Pablo Rosales y Brany Andrés Barrientos Sánchez</t>
-  </si>
-  <si>
-    <t>El 27 de octubre 2017 uno de los condenados violentó sexualmente a una adolescente a quien atacaron con golpes en la cabeza lo que produjo un trauma craneoencefálico que le causó la muerte. Posteriormente envolvieron el cadáver en tela y lo abandonaron en un sembradillo de milpa.</t>
-  </si>
-  <si>
     <t>Municipio</t>
   </si>
   <si>
@@ -1056,9 +1027,6 @@
     <t>San Marcos</t>
   </si>
   <si>
-    <t>No Indicado</t>
-  </si>
-  <si>
     <t>30 años en prisión inconmutables</t>
   </si>
   <si>
@@ -1137,12 +1105,6 @@
     <t xml:space="preserve">5 años en prisión en régimen cerrado </t>
   </si>
   <si>
-    <t>Brany Andrés Barrientos Sánchez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilber Sarbelio </t>
-  </si>
-  <si>
     <t>Pablo Rosales</t>
   </si>
   <si>
@@ -1345,6 +1307,21 @@
   </si>
   <si>
     <t>Mixco</t>
+  </si>
+  <si>
+    <t>Branny Andrés Barrientos Sánchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilber Sarbelino </t>
+  </si>
+  <si>
+    <t>Escuintla</t>
+  </si>
+  <si>
+    <t>Ayutla</t>
+  </si>
+  <si>
+    <t>Sanarate</t>
   </si>
 </sst>
 </file>
@@ -1366,18 +1343,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1392,16 +1363,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1414,8 +1390,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="sentencias" connectionId="1" xr16:uid="{EAC86600-24E7-4317-B76C-483B4BD91460}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8563AF97-10F2-476C-983B-511C3921FD28}" name="Sentencias_Femicidios_GT" displayName="Sentencias_Femicidios_GT" ref="A1:I29" totalsRowShown="0">
+  <autoFilter ref="A1:I29" xr:uid="{16F349D2-4F40-4E2D-8C20-1A66BF976F41}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{491798AC-B7A9-477A-B179-718780F126FA}" name="Departamento"/>
+    <tableColumn id="2" xr3:uid="{DAA5F5B4-6474-430D-A325-C888CC3C410F}" name="Municipio"/>
+    <tableColumn id="3" xr3:uid="{23408504-FD94-4E9E-BDE1-2CC7AE9A3070}" name="Sentencia"/>
+    <tableColumn id="4" xr3:uid="{F7F464E8-5AB0-4828-8A56-D5CF1D452B5E}" name="Sentenciado"/>
+    <tableColumn id="5" xr3:uid="{556A5EAA-BAC4-4B1B-AC4E-2677343F1D13}" name="Fecha Sentencia"/>
+    <tableColumn id="6" xr3:uid="{CA3DE2E2-6551-4661-8289-03B9A94E16A7}" name="Delito" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D7307798-679C-4E88-BFD6-76B25B10060D}" name="Fecha Delito" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{B298A808-0223-4713-9EAC-B01CBF7DAE52}" name="Descripción Delito"/>
+    <tableColumn id="9" xr3:uid="{421FC5A7-6C78-4FB2-919A-B7F79687C803}" name="Víctima"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1715,24 +1705,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4624A5-F142-4104-9DED-55B26AD03304}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1741,1046 +1736,840 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
-      </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="H5" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" t="s">
         <v>338</v>
       </c>
-      <c r="B6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H6" t="s">
-        <v>384</v>
-      </c>
-      <c r="I6" t="s">
-        <v>372</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I7" t="s">
-        <v>373</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" t="s">
-        <v>346</v>
-      </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H8" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" t="s">
+        <v>387</v>
+      </c>
+      <c r="I9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>339</v>
       </c>
-      <c r="C9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H9" t="s">
-        <v>397</v>
-      </c>
-      <c r="I9" t="s">
-        <v>375</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>347</v>
-      </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H10" t="s">
-        <v>401</v>
-      </c>
-      <c r="I10" t="s">
-        <v>374</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D11" t="s">
-        <v>151</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H11" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="I11" t="s">
-        <v>375</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H12" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I12" t="s">
-        <v>376</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D13" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H13" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I13" t="s">
-        <v>376</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H14" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I14" t="s">
-        <v>377</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H15" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I15" t="s">
-        <v>377</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
       <c r="C16" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H16" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I16" t="s">
-        <v>377</v>
-      </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H17" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I17" t="s">
-        <v>378</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H18" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I18" t="s">
-        <v>379</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C19" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="H19" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I19" t="s">
-        <v>380</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H20" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="I20" t="s">
-        <v>381</v>
-      </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D21" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="I21" t="s">
-        <v>381</v>
-      </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B22" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C22" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H22" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="I22" t="s">
-        <v>382</v>
-      </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B23" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" t="s">
         <v>427</v>
       </c>
-      <c r="H23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I23" t="s">
-        <v>383</v>
-      </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>339</v>
-      </c>
-      <c r="B24" t="s">
-        <v>339</v>
-      </c>
-      <c r="C24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D24" t="s">
-        <v>367</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H24" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="I24" t="s">
-        <v>375</v>
-      </c>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="B25" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D25" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H25" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="I25" t="s">
-        <v>375</v>
-      </c>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H26" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="I26" t="s">
-        <v>375</v>
-      </c>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N28" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N30" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N34" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N36" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N38" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N40" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N42" s="3">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N46" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N47" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N48" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N49" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N51" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N53" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N55" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N57" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N59" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N61" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N63" s="3">
-        <v>43785</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N65" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N67" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N68" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N69" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N70" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N71" s="2"/>
-    </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N72" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N74" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N76" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N78" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N80" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N82" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N84" s="3">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N86" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N88" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N89" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N90" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N91" s="2" t="s">
-        <v>70</v>
+      <c r="D27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H27" t="s">
+        <v>420</v>
+      </c>
+      <c r="I27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H28" t="s">
+        <v>420</v>
+      </c>
+      <c r="I28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E29" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H29" t="s">
+        <v>420</v>
+      </c>
+      <c r="I29" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2931,7 +2720,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -2941,7 +2730,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -2951,7 +2740,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -2961,7 +2750,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -2981,17 +2770,17 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -3001,7 +2790,7 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -3011,7 +2800,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -3021,7 +2810,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -3041,12 +2830,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -3056,7 +2845,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -3066,7 +2855,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -3076,7 +2865,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -3096,17 +2885,17 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -3116,7 +2905,7 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -3126,12 +2915,12 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -3141,7 +2930,7 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
@@ -3161,22 +2950,22 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -3186,7 +2975,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
@@ -3196,7 +2985,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -3206,7 +2995,7 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
@@ -3226,12 +3015,12 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
@@ -3241,7 +3030,7 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -3251,7 +3040,7 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -3261,7 +3050,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
@@ -3281,17 +3070,17 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
@@ -3311,7 +3100,7 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
@@ -3321,7 +3110,7 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
@@ -3341,12 +3130,12 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
@@ -3361,7 +3150,7 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
@@ -3371,7 +3160,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
@@ -3381,7 +3170,7 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
@@ -3391,7 +3180,7 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
@@ -3411,17 +3200,17 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
@@ -3441,7 +3230,7 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -3451,7 +3240,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -3471,7 +3260,7 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
@@ -3481,7 +3270,7 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -3501,7 +3290,7 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
@@ -3511,7 +3300,7 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
@@ -3531,12 +3320,12 @@
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
@@ -3551,7 +3340,7 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -3561,7 +3350,7 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -3571,7 +3360,7 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -3591,12 +3380,12 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
@@ -3621,7 +3410,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
@@ -3631,7 +3420,7 @@
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
@@ -3651,7 +3440,7 @@
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
@@ -3661,12 +3450,12 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
@@ -3676,7 +3465,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
@@ -3686,7 +3475,7 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
@@ -3696,7 +3485,7 @@
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
@@ -3716,22 +3505,22 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
@@ -3741,7 +3530,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
@@ -3751,7 +3540,7 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
@@ -3761,7 +3550,7 @@
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
@@ -3781,22 +3570,22 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
@@ -3806,7 +3595,7 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
@@ -3816,7 +3605,7 @@
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
@@ -3826,7 +3615,7 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -3846,22 +3635,22 @@
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
@@ -3871,7 +3660,7 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
@@ -3881,7 +3670,7 @@
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
@@ -3891,7 +3680,7 @@
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
@@ -3911,22 +3700,22 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
@@ -3936,7 +3725,7 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
@@ -3946,7 +3735,7 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -3956,7 +3745,7 @@
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
@@ -3976,22 +3765,22 @@
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
@@ -4011,7 +3800,7 @@
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
@@ -4021,7 +3810,7 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
@@ -4041,17 +3830,17 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
@@ -4071,7 +3860,7 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -4081,7 +3870,7 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -4101,17 +3890,17 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
@@ -4121,7 +3910,7 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
@@ -4131,7 +3920,7 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -4141,7 +3930,7 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
@@ -4161,17 +3950,17 @@
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
@@ -4186,7 +3975,7 @@
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
@@ -4196,7 +3985,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
@@ -4206,7 +3995,7 @@
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
@@ -4226,22 +4015,22 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
@@ -4261,7 +4050,7 @@
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
@@ -4271,7 +4060,7 @@
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
@@ -4291,17 +4080,17 @@
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
@@ -4316,7 +4105,7 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
@@ -4326,7 +4115,7 @@
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
@@ -4336,7 +4125,7 @@
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
@@ -4356,12 +4145,12 @@
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
@@ -4376,7 +4165,7 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
@@ -4386,7 +4175,7 @@
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
@@ -4396,7 +4185,7 @@
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
@@ -4416,7 +4205,7 @@
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
@@ -4426,7 +4215,7 @@
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
@@ -4441,7 +4230,7 @@
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
@@ -4451,7 +4240,7 @@
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
@@ -4461,7 +4250,7 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
@@ -4481,12 +4270,12 @@
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
@@ -4501,7 +4290,7 @@
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
@@ -4511,7 +4300,7 @@
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
@@ -4521,7 +4310,7 @@
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
@@ -4541,12 +4330,12 @@
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
@@ -4561,7 +4350,7 @@
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
@@ -4571,7 +4360,7 @@
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
@@ -4581,7 +4370,7 @@
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
@@ -4601,17 +4390,17 @@
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
@@ -4621,7 +4410,7 @@
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
@@ -4631,7 +4420,7 @@
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
@@ -4641,7 +4430,7 @@
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
@@ -4661,17 +4450,17 @@
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
@@ -4681,7 +4470,7 @@
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
@@ -4691,7 +4480,7 @@
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
@@ -4701,7 +4490,7 @@
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
@@ -4721,17 +4510,17 @@
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
@@ -4746,7 +4535,7 @@
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
@@ -4756,7 +4545,7 @@
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
@@ -4766,7 +4555,7 @@
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
@@ -4786,12 +4575,12 @@
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
@@ -4806,7 +4595,7 @@
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
@@ -4816,7 +4605,7 @@
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
@@ -4826,7 +4615,7 @@
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
@@ -4846,12 +4635,12 @@
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
@@ -4866,7 +4655,7 @@
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
@@ -4876,7 +4665,7 @@
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
@@ -4886,7 +4675,7 @@
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
@@ -4906,12 +4695,12 @@
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
@@ -4926,7 +4715,7 @@
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
@@ -4936,7 +4725,7 @@
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
@@ -4946,7 +4735,7 @@
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
@@ -4966,17 +4755,17 @@
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
@@ -4986,7 +4775,7 @@
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
@@ -4996,7 +4785,7 @@
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
@@ -5006,7 +4795,7 @@
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
@@ -5026,17 +4815,17 @@
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
@@ -5046,7 +4835,7 @@
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
@@ -5056,7 +4845,7 @@
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
@@ -5066,7 +4855,7 @@
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
@@ -5086,17 +4875,17 @@
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
@@ -5106,7 +4895,7 @@
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
@@ -5116,7 +4905,7 @@
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
@@ -5126,7 +4915,7 @@
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
@@ -5146,22 +4935,22 @@
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
@@ -5171,7 +4960,7 @@
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
@@ -5181,7 +4970,7 @@
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
@@ -5191,7 +4980,7 @@
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
@@ -5211,7 +5000,7 @@
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
@@ -5221,7 +5010,7 @@
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
@@ -5236,7 +5025,7 @@
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
@@ -5246,7 +5035,7 @@
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
@@ -5256,7 +5045,7 @@
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
@@ -5276,12 +5065,12 @@
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
@@ -5296,7 +5085,7 @@
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
@@ -5306,7 +5095,7 @@
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
@@ -5316,7 +5105,7 @@
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
@@ -5336,12 +5125,12 @@
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
@@ -5356,7 +5145,7 @@
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
@@ -5366,7 +5155,7 @@
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
@@ -5376,7 +5165,7 @@
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
@@ -5396,17 +5185,17 @@
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
@@ -5416,7 +5205,7 @@
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
@@ -5426,7 +5215,7 @@
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
@@ -5436,7 +5225,7 @@
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
@@ -5456,22 +5245,22 @@
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
@@ -5481,7 +5270,7 @@
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
@@ -5491,7 +5280,7 @@
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
@@ -5501,7 +5290,7 @@
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
@@ -5521,12 +5310,12 @@
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
@@ -5541,7 +5330,7 @@
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
@@ -5551,7 +5340,7 @@
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
@@ -5561,7 +5350,7 @@
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
@@ -5581,17 +5370,17 @@
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
@@ -5601,7 +5390,7 @@
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
@@ -5611,7 +5400,7 @@
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
@@ -5621,7 +5410,7 @@
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
@@ -5641,12 +5430,12 @@
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
@@ -5671,7 +5460,7 @@
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
@@ -5681,7 +5470,7 @@
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
@@ -5701,12 +5490,12 @@
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
@@ -5721,7 +5510,7 @@
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
@@ -5731,7 +5520,7 @@
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
@@ -5741,7 +5530,7 @@
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
@@ -5761,12 +5550,12 @@
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
@@ -5781,7 +5570,7 @@
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
@@ -5791,7 +5580,7 @@
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
@@ -5801,7 +5590,7 @@
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
@@ -5821,12 +5610,12 @@
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
@@ -5841,7 +5630,7 @@
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
@@ -5851,7 +5640,7 @@
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
@@ -5861,7 +5650,7 @@
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
@@ -5881,17 +5670,17 @@
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
@@ -5911,7 +5700,7 @@
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
@@ -5921,7 +5710,7 @@
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
@@ -5941,17 +5730,17 @@
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
@@ -5961,7 +5750,7 @@
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
@@ -5971,7 +5760,7 @@
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
@@ -5981,7 +5770,7 @@
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
@@ -6001,17 +5790,17 @@
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
@@ -6021,7 +5810,7 @@
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
@@ -6031,7 +5820,7 @@
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
@@ -6041,7 +5830,7 @@
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
@@ -6061,17 +5850,17 @@
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
@@ -6081,7 +5870,7 @@
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
@@ -6091,7 +5880,7 @@
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
@@ -6101,7 +5890,7 @@
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
@@ -6121,17 +5910,17 @@
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
@@ -6151,7 +5940,7 @@
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
@@ -6161,7 +5950,7 @@
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
@@ -6181,17 +5970,17 @@
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
@@ -6201,7 +5990,7 @@
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
@@ -6211,7 +6000,7 @@
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
@@ -6221,7 +6010,7 @@
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
@@ -6241,12 +6030,12 @@
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
@@ -6261,7 +6050,7 @@
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
@@ -6271,7 +6060,7 @@
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
@@ -6281,7 +6070,7 @@
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
@@ -6301,12 +6090,12 @@
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
@@ -6321,7 +6110,7 @@
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
@@ -6331,7 +6120,7 @@
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
@@ -6341,7 +6130,7 @@
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
@@ -6361,17 +6150,17 @@
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
@@ -6381,7 +6170,7 @@
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
@@ -6391,7 +6180,7 @@
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
@@ -6401,7 +6190,7 @@
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
@@ -6421,22 +6210,22 @@
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
@@ -6446,7 +6235,7 @@
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
@@ -6456,7 +6245,7 @@
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
@@ -6466,7 +6255,7 @@
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
@@ -6486,22 +6275,22 @@
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
@@ -6511,7 +6300,7 @@
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
@@ -6521,7 +6310,7 @@
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
@@ -6531,7 +6320,7 @@
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
@@ -6551,12 +6340,12 @@
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
@@ -6571,7 +6360,7 @@
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
@@ -6581,7 +6370,7 @@
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
@@ -6591,7 +6380,7 @@
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
@@ -6611,17 +6400,17 @@
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
@@ -6631,7 +6420,7 @@
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
@@ -6641,7 +6430,7 @@
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
@@ -6651,7 +6440,7 @@
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
@@ -6671,12 +6460,12 @@
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
@@ -6691,7 +6480,7 @@
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
@@ -6701,7 +6490,7 @@
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
@@ -6711,7 +6500,7 @@
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
@@ -6731,17 +6520,17 @@
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
@@ -6756,7 +6545,7 @@
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
@@ -6766,7 +6555,7 @@
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
@@ -6776,7 +6565,7 @@
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
@@ -6796,17 +6585,17 @@
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
@@ -6821,7 +6610,7 @@
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
@@ -6831,7 +6620,7 @@
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
@@ -6841,7 +6630,7 @@
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
@@ -6861,17 +6650,17 @@
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
@@ -6886,7 +6675,7 @@
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
@@ -6896,7 +6685,7 @@
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
@@ -6906,7 +6695,7 @@
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
@@ -6926,17 +6715,17 @@
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
@@ -6951,7 +6740,7 @@
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
@@ -6961,7 +6750,7 @@
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
@@ -6971,7 +6760,7 @@
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
@@ -6991,17 +6780,17 @@
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
@@ -7026,7 +6815,7 @@
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
@@ -7036,7 +6825,7 @@
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
@@ -7056,22 +6845,22 @@
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
@@ -7091,7 +6880,7 @@
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
@@ -7101,7 +6890,7 @@
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
@@ -7121,17 +6910,17 @@
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
@@ -7146,7 +6935,7 @@
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
@@ -7156,7 +6945,7 @@
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
@@ -7166,7 +6955,7 @@
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
@@ -7186,17 +6975,17 @@
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
@@ -7211,7 +7000,7 @@
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
@@ -7221,7 +7010,7 @@
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1557" spans="1:1" x14ac:dyDescent="0.25">
@@ -7231,7 +7020,7 @@
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
@@ -7251,22 +7040,22 @@
     </row>
     <row r="1567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1567" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1568" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1569" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
@@ -7276,7 +7065,7 @@
     </row>
     <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1573" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
@@ -7286,7 +7075,7 @@
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
@@ -7296,7 +7085,7 @@
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1581" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
@@ -7316,17 +7105,17 @@
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1589" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1590" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
@@ -7341,7 +7130,7 @@
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1595" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
@@ -7351,7 +7140,7 @@
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1599" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
@@ -7361,7 +7150,7 @@
     </row>
     <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
@@ -7381,17 +7170,17 @@
     </row>
     <row r="1611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1611" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
@@ -7406,7 +7195,7 @@
     </row>
     <row r="1617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1617" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1619" spans="1:1" x14ac:dyDescent="0.25">
@@ -7416,7 +7205,7 @@
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
@@ -7426,7 +7215,7 @@
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
@@ -7446,22 +7235,22 @@
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
@@ -7471,7 +7260,7 @@
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
@@ -7481,7 +7270,7 @@
     </row>
     <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
@@ -7491,7 +7280,7 @@
     </row>
     <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1647" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
@@ -7511,12 +7300,12 @@
     </row>
     <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1655" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
@@ -7531,7 +7320,7 @@
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
@@ -7541,7 +7330,7 @@
     </row>
     <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
@@ -7551,7 +7340,7 @@
     </row>
     <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
@@ -7571,17 +7360,17 @@
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
@@ -7596,7 +7385,7 @@
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
@@ -7606,7 +7395,7 @@
     </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
@@ -7616,7 +7405,7 @@
     </row>
     <row r="1690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1692" spans="1:1" x14ac:dyDescent="0.25">
@@ -7636,17 +7425,17 @@
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
@@ -7661,7 +7450,7 @@
     </row>
     <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
@@ -7671,7 +7460,7 @@
     </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
@@ -7681,7 +7470,7 @@
     </row>
     <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
@@ -7701,17 +7490,17 @@
     </row>
     <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1721" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
@@ -7721,7 +7510,7 @@
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
@@ -7731,7 +7520,7 @@
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1729" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
@@ -7741,7 +7530,7 @@
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1733" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
@@ -7761,12 +7550,12 @@
     </row>
     <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1742" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
@@ -7781,7 +7570,7 @@
     </row>
     <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1746" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
@@ -7791,7 +7580,7 @@
     </row>
     <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1750" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
@@ -7801,7 +7590,7 @@
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
@@ -7821,22 +7610,22 @@
     </row>
     <row r="1762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1763" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1764" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1765" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1766" spans="1:1" x14ac:dyDescent="0.25">
@@ -7856,7 +7645,7 @@
     </row>
     <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1772" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
@@ -7866,7 +7655,7 @@
     </row>
     <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1776" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
@@ -7886,22 +7675,22 @@
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1787" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
@@ -7911,7 +7700,7 @@
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1790" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
@@ -7921,7 +7710,7 @@
     </row>
     <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
@@ -7931,7 +7720,7 @@
     </row>
     <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
@@ -7951,22 +7740,22 @@
     </row>
     <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
@@ -7976,7 +7765,7 @@
     </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
@@ -7986,7 +7775,7 @@
     </row>
     <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
@@ -7996,7 +7785,7 @@
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
@@ -8016,22 +7805,22 @@
     </row>
     <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1828" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
@@ -8051,7 +7840,7 @@
     </row>
     <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
@@ -8061,7 +7850,7 @@
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
@@ -8081,22 +7870,22 @@
     </row>
     <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1850" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1852" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
@@ -8116,7 +7905,7 @@
     </row>
     <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
@@ -8126,7 +7915,7 @@
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
@@ -8146,22 +7935,22 @@
     </row>
     <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1873" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1875" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
@@ -8181,7 +7970,7 @@
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
@@ -8191,7 +7980,7 @@
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1886" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
@@ -8211,17 +8000,17 @@
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
@@ -8231,7 +8020,7 @@
     </row>
     <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
@@ -8241,7 +8030,7 @@
     </row>
     <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
@@ -8251,7 +8040,7 @@
     </row>
     <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
@@ -8271,22 +8060,22 @@
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
@@ -8306,7 +8095,7 @@
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1925" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
@@ -8316,7 +8105,7 @@
     </row>
     <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1929" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
@@ -8336,12 +8125,12 @@
     </row>
     <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1937" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1938" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
@@ -8356,7 +8145,7 @@
     </row>
     <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1943" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
@@ -8366,7 +8155,7 @@
     </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
@@ -8376,7 +8165,7 @@
     </row>
     <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
@@ -8396,17 +8185,17 @@
     </row>
     <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1959" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
@@ -8431,7 +8220,7 @@
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1969" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
@@ -8441,7 +8230,7 @@
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
@@ -8461,17 +8250,17 @@
     </row>
     <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1981" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1982" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1983" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/GUATEMALA/Delitos/Sentencias por Delito 2018-2019-2020.xlsx
+++ b/GUATEMALA/Delitos/Sentencias por Delito 2018-2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839F84BC-1456-4A04-A871-03C53D1F0E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6114F0F5-F897-4873-9F4B-5EECED0E0F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CAD5BC7-A91E-42EF-81EC-AE0619A760B5}"/>
   </bookViews>
@@ -1153,9 +1153,6 @@
     <t>María Consuelo Gaitán Blanco</t>
   </si>
   <si>
-    <t>Luego de una discusión, Daniel Valiente Ventura de San Marcos, quien agredía constantemente a su conviviente, tomó un arma de fuego y realizó al menos ocho disparos en contra de Karina Magali Gómez Gómez, quien se encontraba en estado de gestación. Por las heridas falleció inmediatamente. El victimario se dio a la fuga pero fue detenido por agentes policiales con el arma.</t>
-  </si>
-  <si>
     <t>Fecha Delito</t>
   </si>
   <si>
@@ -1171,9 +1168,6 @@
     <t>21 de agosto de 2020</t>
   </si>
   <si>
-    <t>El acusado le disparó en repetidas ocasiones a Jennifer Elizabeth Pernillo, frente a su hija menor, causándole la muerte de manera inmediata. Posterior al hecho se dio a la fuga a bordo de una motocicleta.</t>
-  </si>
-  <si>
     <t>14 de marzo de 2020</t>
   </si>
   <si>
@@ -1183,54 +1177,33 @@
     <t>26 de octubre de 2017</t>
   </si>
   <si>
-    <t>Dio muerte a su compañera de hogar Claudia Eunice Villegas Gonzáles, a quien degolló con un arma blanca, dejando su cadáver abandonado en el interior de un automóvil en el departamento de Huehuetenango.</t>
-  </si>
-  <si>
     <t>12 de junio de 2018</t>
   </si>
   <si>
     <t>14 de noviembre de 2016</t>
   </si>
   <si>
-    <t>El sentenciado, en su vivienda ubicada en Zacapa, violentó sexualmente a una niña, a quien posteriormente estranguló, abandonando el cuerpo sin vida en un área boscosa.</t>
-  </si>
-  <si>
-    <t>Le dispararon en repetidas ocasiones a Ángela Elizabeth Hernández Canté, provocándole muerte inmediata.</t>
-  </si>
-  <si>
     <t>16 de septiembre de 2018</t>
   </si>
   <si>
     <t>17 de octubre de 2016</t>
   </si>
   <si>
-    <t>Reyna Isabel Roque Aguilar, de 34 años, se encontraba en su casa en Izabal cuando discutía con Ical Pop, quien en represalia le clavó un destornillador en el pecho en presencia de sus cinco hijas. A consecuencias de las heridas es trasladada al Hospital de Izabal donde falleció.</t>
-  </si>
-  <si>
     <t>16 de noviembre de 2018</t>
   </si>
   <si>
     <t>4 de enero de 2017</t>
   </si>
   <si>
-    <t>Marroquín Zuñiga, aproximadamente a las 19:00 horas, le dio muerte a una mujer al ocasionarle 23 heridas con un arma blanca. Posteriormente abandonó el cadáver en la vía pública.</t>
-  </si>
-  <si>
     <t>10 de junio de 2019</t>
   </si>
   <si>
     <t>22 de marzo de 2017</t>
   </si>
   <si>
-    <t>Maria Luz López se encontraba en compañía de su nieto en el Departamento El Progreso. Las investigaciones determinaron que la víctima estaba amenazada de muerte, por integrantes de la organización criminal ”Los del Punto”, quienes con arma de fuego les dispararon. Ambos fallecieron por la gravedad de las heridas.</t>
-  </si>
-  <si>
     <t>3 de diciembre de 2016</t>
   </si>
   <si>
-    <t>Los tres condenados se llevaron en un moto taxi y bajo amenazas de muerte a Clara Luz Cortez Ramírez. Posteriormente le ocasionaron la muerte por múltiples golpes en el cráneo, la decapitaron y abandonaron las partes de su cuerpo en diferentes partes del departamento de El Progreso.</t>
-  </si>
-  <si>
     <t>5 de junio de 2019</t>
   </si>
   <si>
@@ -1255,45 +1228,24 @@
     <t>6 de febrero de 2016</t>
   </si>
   <si>
-    <t>Ana Lucía Arreaga Escobedo salió de su residencia ubicada en Mazatenango, cuando una persona a bordo de una motocicleta le disparó con un arma de fuego, ocasionándole la muerte. La investigación determinó que el arma utilizada pertenece a De la Cruz Avalos miembro de la estructura criminal ”Los de la O”.</t>
-  </si>
-  <si>
     <t>1 de junio de 2018</t>
   </si>
   <si>
-    <t>Aldana Alejandro, luego de una discusión fuera del inmueble donde vivía con su conviviente Lucía Claribell Espina Ortiz (con quien procreó cuatro hijos y uno más estado de gestación), disparó hacia la puerta de dicho domicilio con pleno conocimiento de que ella se encontraba detrás de la misma. La víctima falleció en el lugar.</t>
-  </si>
-  <si>
     <t>22 de septiembre de 2017</t>
   </si>
   <si>
-    <t>Luis Alberto García le provocó la muerte a Vilma Lisbeth Escobar Hernández, luego de atacarla con un arma de fuego.</t>
-  </si>
-  <si>
     <t>3 de noviembre de 2016</t>
   </si>
   <si>
-    <t>Fredy David Pérez Martínez le provocó la muerte a Gladys Bernarda Patzán luego de estrangularla. El cuerpo lo recogió José Romero Inocente, piloto de un taxi, lo transportó en el baúl del vehículo y luego lo abandonó.</t>
-  </si>
-  <si>
     <t>28 de noviembre de 2018</t>
   </si>
   <si>
-    <t>Jorge Alberto Díaz Zapata de 18 años, valiéndose de las relaciones desiguales de poder, asfixió y estranguló a su conviviente Andrea Yamileth Prado García de 25 años, causándole la muerte. Luego del hecho abandonó el cadáver en una zona de la ciudad capital.</t>
-  </si>
-  <si>
     <t>25 de junio de 2018</t>
   </si>
   <si>
-    <t>El condenado se acercó a María Consuelo Gaitán Blanco de 52 años y sin mediar palabra le disparó con un arma de fuego.</t>
-  </si>
-  <si>
     <t>27 de octubre de 2017</t>
   </si>
   <si>
-    <t>Uno de los condenados violentó sexualmente a una adolescente, a quien atacaron con golpes en la cabeza. Esto produjo un trauma craneoencefálico que le causó la muerte. Posteriormente envolvieron el cadáver en tela y lo abandonaron en un sembradillo de milpa.</t>
-  </si>
-  <si>
     <t>Delito</t>
   </si>
   <si>
@@ -1322,6 +1274,54 @@
   </si>
   <si>
     <t>Sanarate</t>
+  </si>
+  <si>
+    <t>Le dispararon en repetidas ocasiones, provocándole la muerte inmediata.</t>
+  </si>
+  <si>
+    <t>Los integrantes de la banda "Los del Punto" les dispararon a ella y a su nieto, falleciendo inmediatamente por sus heridas.</t>
+  </si>
+  <si>
+    <t>Una persona de la banda "Los de la O" a bordo de una motocicleta le disparó con un arma de fuego, ocasionándole la muerte.</t>
+  </si>
+  <si>
+    <t>Le provocó la muerte luego de atacarla con un arma de fuego.</t>
+  </si>
+  <si>
+    <t>Fredy David Pérez Martínez la estranguló. El cuerpo lo recogió José Romero Inocente, piloto de un taxi, lo transportó en el baúl del vehículo y luego lo abandonó.</t>
+  </si>
+  <si>
+    <t>El sujeto asfixió y estranguló a su conviviente de 25 años, causándole la muerte. Luego abandonó el cadáver en una zona de la ciudad capital.</t>
+  </si>
+  <si>
+    <t>El condenado se acercó a la víctima de 52 años y sin mediar palabra le disparó con un arma de fuego.</t>
+  </si>
+  <si>
+    <t>Le disparó en repetidas ocasiones, frente a su hija menor, causándole la muerte inmediata. Se dio a la fuga a bordo de una motocicleta.</t>
+  </si>
+  <si>
+    <t>El acusado disparó 8 veces a la víctima, quien se encontraba embarazada. El victimario se fugó pero fue detenido con el arma.</t>
+  </si>
+  <si>
+    <t>Dio muerte a su compañera de hogar, a quien degolló con un arma blanca, abandonando su cadáver dentro de un automóvil.</t>
+  </si>
+  <si>
+    <t>El sentenciado violentó sexualmente y estranguló a una niña, abandonando el cuerpo en un área boscosa.</t>
+  </si>
+  <si>
+    <t>Le clavó un destornillador en el pecho en presencia de sus cinco hijas.</t>
+  </si>
+  <si>
+    <t>Le dio muerte al ocasionarle 23 heridas con un arma blanca. Abandonó el cadáver en la vía pública.</t>
+  </si>
+  <si>
+    <t>Se la llevaron amenazada de muerte en moto taxi. Le dieron múltiples golpes en el cráneo, la decapitaron y abandonaron las partes de su cuerpo en diferentes partes.</t>
+  </si>
+  <si>
+    <t>Luego de una discusión, disparó hacia la puerta del domicilio con pleno conocimiento de que la víctima estaba detrás de ella. La víctima falleció en el lugar.</t>
+  </si>
+  <si>
+    <t>Uno de ellos violó a la adolescente y luego la golpearon en la cabeza. El trauma le causó la muerte. Envolvieron el cadáver en tela y lo abandonaron.</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1708,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,10 +1739,10 @@
         <v>328</v>
       </c>
       <c r="F1" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="G1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1" t="s">
         <v>329</v>
@@ -1765,16 +1765,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H2" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="I2" t="s">
         <v>360</v>
@@ -1794,16 +1794,16 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="I3" t="s">
         <v>360</v>
@@ -1823,16 +1823,16 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="I4" t="s">
         <v>360</v>
@@ -1852,16 +1852,16 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H5" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="I5" t="s">
         <v>361</v>
@@ -1872,7 +1872,7 @@
         <v>331</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
         <v>334</v>
@@ -1881,16 +1881,16 @@
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="H6" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="I6" t="s">
         <v>362</v>
@@ -1910,16 +1910,16 @@
         <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H7" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="I7" t="s">
         <v>363</v>
@@ -1939,16 +1939,16 @@
         <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H8" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="I8" t="s">
         <v>365</v>
@@ -1968,16 +1968,16 @@
         <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H9" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="I9" t="s">
         <v>365</v>
@@ -1988,7 +1988,7 @@
         <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
         <v>340</v>
@@ -1997,16 +1997,16 @@
         <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H10" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="I10" t="s">
         <v>364</v>
@@ -2026,16 +2026,16 @@
         <v>150</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H11" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="I11" t="s">
         <v>365</v>
@@ -2046,7 +2046,7 @@
         <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
         <v>341</v>
@@ -2055,16 +2055,16 @@
         <v>343</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H12" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="I12" t="s">
         <v>366</v>
@@ -2075,7 +2075,7 @@
         <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C13" t="s">
         <v>341</v>
@@ -2084,16 +2084,16 @@
         <v>344</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H13" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="I13" t="s">
         <v>366</v>
@@ -2104,7 +2104,7 @@
         <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
         <v>345</v>
@@ -2113,16 +2113,16 @@
         <v>347</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H14" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="I14" t="s">
         <v>367</v>
@@ -2133,7 +2133,7 @@
         <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C15" t="s">
         <v>345</v>
@@ -2142,16 +2142,16 @@
         <v>348</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H15" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="I15" t="s">
         <v>367</v>
@@ -2162,7 +2162,7 @@
         <v>342</v>
       </c>
       <c r="B16" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
         <v>345</v>
@@ -2171,16 +2171,16 @@
         <v>346</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H16" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="I16" t="s">
         <v>367</v>
@@ -2200,16 +2200,16 @@
         <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H17" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="I17" t="s">
         <v>368</v>
@@ -2229,16 +2229,16 @@
         <v>215</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H18" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="I18" t="s">
         <v>369</v>
@@ -2258,16 +2258,16 @@
         <v>238</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="I19" t="s">
         <v>370</v>
@@ -2278,7 +2278,7 @@
         <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C20" t="s">
         <v>333</v>
@@ -2287,16 +2287,16 @@
         <v>354</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="H20" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I20" t="s">
         <v>371</v>
@@ -2307,7 +2307,7 @@
         <v>330</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
         <v>353</v>
@@ -2316,16 +2316,16 @@
         <v>355</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="H21" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I21" t="s">
         <v>371</v>
@@ -2345,16 +2345,16 @@
         <v>324</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="H22" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I22" t="s">
         <v>372</v>
@@ -2374,16 +2374,16 @@
         <v>325</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H23" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I23" t="s">
         <v>373</v>
@@ -2391,28 +2391,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
         <v>332</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H24" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="I24" t="s">
         <v>365</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B25" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C25" t="s">
         <v>332</v>
@@ -2432,16 +2432,16 @@
         <v>358</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H25" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="I25" t="s">
         <v>365</v>
@@ -2449,28 +2449,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
         <v>332</v>
       </c>
       <c r="D26" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H26" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="I26" t="s">
         <v>365</v>
@@ -2478,28 +2478,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B27" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C27" t="s">
         <v>332</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="E27" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H27" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="I27" t="s">
         <v>365</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B28" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C28" t="s">
         <v>332</v>
@@ -2519,16 +2519,16 @@
         <v>358</v>
       </c>
       <c r="E28" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H28" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="I28" t="s">
         <v>365</v>
@@ -2536,28 +2536,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B29" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C29" t="s">
         <v>332</v>
       </c>
       <c r="D29" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="E29" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H29" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="I29" t="s">
         <v>365</v>
